--- a/locations/A10.xlsx
+++ b/locations/A10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/bulk_report_webapp/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/Deployment/bulk_report_webapp/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FF1CDC-F904-4523-A323-D351763672C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0829CD8F-9CBA-4225-98A5-A3771D3D632C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,358 +41,610 @@
     <t>G</t>
   </si>
   <si>
-    <t>10021G</t>
-  </si>
-  <si>
-    <t>10022G</t>
-  </si>
-  <si>
-    <t>10041G</t>
-  </si>
-  <si>
-    <t>10042G</t>
-  </si>
-  <si>
-    <t>10061G</t>
-  </si>
-  <si>
-    <t>10062G</t>
-  </si>
-  <si>
-    <t>10081G</t>
-  </si>
-  <si>
-    <t>10082G</t>
-  </si>
-  <si>
-    <t>10101G</t>
+    <t>10272G</t>
+  </si>
+  <si>
+    <t>10271G</t>
+  </si>
+  <si>
+    <t>10252G</t>
+  </si>
+  <si>
+    <t>10251G</t>
+  </si>
+  <si>
+    <t>10232G</t>
+  </si>
+  <si>
+    <t>10231G</t>
+  </si>
+  <si>
+    <t>10212G</t>
+  </si>
+  <si>
+    <t>10211G</t>
+  </si>
+  <si>
+    <t>10192G</t>
+  </si>
+  <si>
+    <t>10191G</t>
+  </si>
+  <si>
+    <t>10172G</t>
+  </si>
+  <si>
+    <t>10171G</t>
+  </si>
+  <si>
+    <t>10152G</t>
+  </si>
+  <si>
+    <t>10151G</t>
+  </si>
+  <si>
+    <t>10132G</t>
+  </si>
+  <si>
+    <t>10131G</t>
   </si>
   <si>
     <t>10112G</t>
   </si>
   <si>
-    <t>10121G</t>
-  </si>
-  <si>
-    <t>10122G</t>
-  </si>
-  <si>
-    <t>10141G</t>
-  </si>
-  <si>
-    <t>10142G</t>
-  </si>
-  <si>
-    <t>10161G</t>
-  </si>
-  <si>
-    <t>10162G</t>
+    <t>10111G</t>
+  </si>
+  <si>
+    <t>10092G</t>
+  </si>
+  <si>
+    <t>10091G</t>
+  </si>
+  <si>
+    <t>10072G</t>
+  </si>
+  <si>
+    <t>10071G</t>
+  </si>
+  <si>
+    <t>10052G</t>
+  </si>
+  <si>
+    <t>10051G</t>
+  </si>
+  <si>
+    <t>10032G</t>
+  </si>
+  <si>
+    <t>10031G</t>
+  </si>
+  <si>
+    <t>10012G</t>
+  </si>
+  <si>
+    <t>10011G</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>10021F</t>
-  </si>
-  <si>
-    <t>10022F</t>
-  </si>
-  <si>
-    <t>10041F</t>
-  </si>
-  <si>
-    <t>10042F</t>
-  </si>
-  <si>
-    <t>10061F</t>
-  </si>
-  <si>
-    <t>10062F</t>
-  </si>
-  <si>
-    <t>10081F</t>
-  </si>
-  <si>
-    <t>10082F</t>
-  </si>
-  <si>
-    <t>10101F</t>
+    <t>10272F</t>
+  </si>
+  <si>
+    <t>10271F</t>
+  </si>
+  <si>
+    <t>10252F</t>
+  </si>
+  <si>
+    <t>10251F</t>
+  </si>
+  <si>
+    <t>10232F</t>
+  </si>
+  <si>
+    <t>10231F</t>
+  </si>
+  <si>
+    <t>10212F</t>
+  </si>
+  <si>
+    <t>10211F</t>
+  </si>
+  <si>
+    <t>10192F</t>
+  </si>
+  <si>
+    <t>10191F</t>
+  </si>
+  <si>
+    <t>10172F</t>
+  </si>
+  <si>
+    <t>10171F</t>
+  </si>
+  <si>
+    <t>10152F</t>
+  </si>
+  <si>
+    <t>10151F</t>
+  </si>
+  <si>
+    <t>10132F</t>
+  </si>
+  <si>
+    <t>10131F</t>
   </si>
   <si>
     <t>10112F</t>
   </si>
   <si>
-    <t>10121F</t>
-  </si>
-  <si>
-    <t>10122F</t>
-  </si>
-  <si>
-    <t>10141F</t>
-  </si>
-  <si>
-    <t>10142F</t>
-  </si>
-  <si>
-    <t>10161F</t>
-  </si>
-  <si>
-    <t>10162F</t>
+    <t>10111F</t>
+  </si>
+  <si>
+    <t>10092F</t>
+  </si>
+  <si>
+    <t>10091F</t>
+  </si>
+  <si>
+    <t>10072F</t>
+  </si>
+  <si>
+    <t>10071F</t>
+  </si>
+  <si>
+    <t>10052F</t>
+  </si>
+  <si>
+    <t>10051F</t>
+  </si>
+  <si>
+    <t>10032F</t>
+  </si>
+  <si>
+    <t>10031F</t>
+  </si>
+  <si>
+    <t>10012F</t>
+  </si>
+  <si>
+    <t>10011F</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>10021E</t>
-  </si>
-  <si>
-    <t>10022E</t>
-  </si>
-  <si>
-    <t>10041E</t>
-  </si>
-  <si>
-    <t>10042E</t>
-  </si>
-  <si>
-    <t>10061E</t>
-  </si>
-  <si>
-    <t>10062E</t>
-  </si>
-  <si>
-    <t>10081E</t>
-  </si>
-  <si>
-    <t>10082E</t>
-  </si>
-  <si>
-    <t>10101E</t>
+    <t>10272E</t>
+  </si>
+  <si>
+    <t>10271E</t>
+  </si>
+  <si>
+    <t>10252E</t>
+  </si>
+  <si>
+    <t>10251E</t>
+  </si>
+  <si>
+    <t>10232E</t>
+  </si>
+  <si>
+    <t>10231E</t>
+  </si>
+  <si>
+    <t>10212E</t>
+  </si>
+  <si>
+    <t>10211E</t>
+  </si>
+  <si>
+    <t>10192E</t>
+  </si>
+  <si>
+    <t>10191E</t>
+  </si>
+  <si>
+    <t>10172E</t>
+  </si>
+  <si>
+    <t>10171E</t>
+  </si>
+  <si>
+    <t>10152E</t>
+  </si>
+  <si>
+    <t>10151E</t>
+  </si>
+  <si>
+    <t>10132E</t>
+  </si>
+  <si>
+    <t>10131E</t>
   </si>
   <si>
     <t>10112E</t>
   </si>
   <si>
-    <t>10121E</t>
-  </si>
-  <si>
-    <t>10122E</t>
-  </si>
-  <si>
-    <t>10141E</t>
-  </si>
-  <si>
-    <t>10142E</t>
-  </si>
-  <si>
-    <t>10161E</t>
-  </si>
-  <si>
-    <t>10162E</t>
+    <t>10111E</t>
+  </si>
+  <si>
+    <t>10092E</t>
+  </si>
+  <si>
+    <t>10091E</t>
+  </si>
+  <si>
+    <t>10072E</t>
+  </si>
+  <si>
+    <t>10071E</t>
+  </si>
+  <si>
+    <t>10052E</t>
+  </si>
+  <si>
+    <t>10051E</t>
+  </si>
+  <si>
+    <t>10032E</t>
+  </si>
+  <si>
+    <t>10031E</t>
+  </si>
+  <si>
+    <t>10012E</t>
+  </si>
+  <si>
+    <t>10011E</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>10021D</t>
-  </si>
-  <si>
-    <t>10022D</t>
-  </si>
-  <si>
-    <t>10041D</t>
-  </si>
-  <si>
-    <t>10042D</t>
-  </si>
-  <si>
-    <t>10061D</t>
-  </si>
-  <si>
-    <t>10062D</t>
-  </si>
-  <si>
-    <t>10081D</t>
-  </si>
-  <si>
-    <t>10082D</t>
-  </si>
-  <si>
-    <t>10101D</t>
+    <t>10272D</t>
+  </si>
+  <si>
+    <t>10271D</t>
+  </si>
+  <si>
+    <t>10252D</t>
+  </si>
+  <si>
+    <t>10251D</t>
+  </si>
+  <si>
+    <t>10232D</t>
+  </si>
+  <si>
+    <t>10231D</t>
+  </si>
+  <si>
+    <t>10212D</t>
+  </si>
+  <si>
+    <t>10211D</t>
+  </si>
+  <si>
+    <t>10192D</t>
+  </si>
+  <si>
+    <t>10191D</t>
+  </si>
+  <si>
+    <t>10172D</t>
+  </si>
+  <si>
+    <t>10171D</t>
+  </si>
+  <si>
+    <t>10152D</t>
+  </si>
+  <si>
+    <t>10151D</t>
+  </si>
+  <si>
+    <t>10132D</t>
+  </si>
+  <si>
+    <t>10131D</t>
   </si>
   <si>
     <t>10112D</t>
   </si>
   <si>
-    <t>10121D</t>
-  </si>
-  <si>
-    <t>10122D</t>
-  </si>
-  <si>
-    <t>10141D</t>
-  </si>
-  <si>
-    <t>10142D</t>
-  </si>
-  <si>
-    <t>10161D</t>
-  </si>
-  <si>
-    <t>10162D</t>
+    <t>10111D</t>
+  </si>
+  <si>
+    <t>10092D</t>
+  </si>
+  <si>
+    <t>10091D</t>
+  </si>
+  <si>
+    <t>10072D</t>
+  </si>
+  <si>
+    <t>10071D</t>
+  </si>
+  <si>
+    <t>10052D</t>
+  </si>
+  <si>
+    <t>10051D</t>
+  </si>
+  <si>
+    <t>10032D</t>
+  </si>
+  <si>
+    <t>10031D</t>
+  </si>
+  <si>
+    <t>10012D</t>
+  </si>
+  <si>
+    <t>10011D</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>10021C</t>
-  </si>
-  <si>
-    <t>10022C</t>
-  </si>
-  <si>
-    <t>10041C</t>
-  </si>
-  <si>
-    <t>10042C</t>
-  </si>
-  <si>
-    <t>10061C</t>
-  </si>
-  <si>
-    <t>10062C</t>
-  </si>
-  <si>
-    <t>10081C</t>
-  </si>
-  <si>
-    <t>10082C</t>
-  </si>
-  <si>
-    <t>10101C</t>
+    <t>10272C</t>
+  </si>
+  <si>
+    <t>10271C</t>
+  </si>
+  <si>
+    <t>10252C</t>
+  </si>
+  <si>
+    <t>10251C</t>
+  </si>
+  <si>
+    <t>10232C</t>
+  </si>
+  <si>
+    <t>10231C</t>
+  </si>
+  <si>
+    <t>10212C</t>
+  </si>
+  <si>
+    <t>10211C</t>
+  </si>
+  <si>
+    <t>10192C</t>
+  </si>
+  <si>
+    <t>10191C</t>
+  </si>
+  <si>
+    <t>10172C</t>
+  </si>
+  <si>
+    <t>10171C</t>
+  </si>
+  <si>
+    <t>10152C</t>
+  </si>
+  <si>
+    <t>10151C</t>
+  </si>
+  <si>
+    <t>10132C</t>
+  </si>
+  <si>
+    <t>10131C</t>
   </si>
   <si>
     <t>10112C</t>
   </si>
   <si>
-    <t>10121C</t>
-  </si>
-  <si>
-    <t>10122C</t>
-  </si>
-  <si>
-    <t>10141C</t>
-  </si>
-  <si>
-    <t>10142C</t>
-  </si>
-  <si>
-    <t>10161C</t>
-  </si>
-  <si>
-    <t>10162C</t>
+    <t>10111C</t>
+  </si>
+  <si>
+    <t>10092C</t>
+  </si>
+  <si>
+    <t>10091C</t>
+  </si>
+  <si>
+    <t>10072C</t>
+  </si>
+  <si>
+    <t>10071C</t>
+  </si>
+  <si>
+    <t>10052C</t>
+  </si>
+  <si>
+    <t>10051C</t>
+  </si>
+  <si>
+    <t>10032C</t>
+  </si>
+  <si>
+    <t>10031C</t>
+  </si>
+  <si>
+    <t>10012C</t>
+  </si>
+  <si>
+    <t>10011C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>10021B</t>
-  </si>
-  <si>
-    <t>10022B</t>
-  </si>
-  <si>
-    <t>10041B</t>
-  </si>
-  <si>
-    <t>10042B</t>
-  </si>
-  <si>
-    <t>10061B</t>
-  </si>
-  <si>
-    <t>10062B</t>
-  </si>
-  <si>
-    <t>10081B</t>
-  </si>
-  <si>
-    <t>10082B</t>
-  </si>
-  <si>
-    <t>10101B</t>
+    <t>10272B</t>
+  </si>
+  <si>
+    <t>10271B</t>
+  </si>
+  <si>
+    <t>10252B</t>
+  </si>
+  <si>
+    <t>10251B</t>
+  </si>
+  <si>
+    <t>10232B</t>
+  </si>
+  <si>
+    <t>10231B</t>
+  </si>
+  <si>
+    <t>10212B</t>
+  </si>
+  <si>
+    <t>10211B</t>
+  </si>
+  <si>
+    <t>10192B</t>
+  </si>
+  <si>
+    <t>10191B</t>
+  </si>
+  <si>
+    <t>10172B</t>
+  </si>
+  <si>
+    <t>10171B</t>
+  </si>
+  <si>
+    <t>10152B</t>
+  </si>
+  <si>
+    <t>10151B</t>
+  </si>
+  <si>
+    <t>10132B</t>
+  </si>
+  <si>
+    <t>10131B</t>
   </si>
   <si>
     <t>10112B</t>
   </si>
   <si>
-    <t>10121B</t>
-  </si>
-  <si>
-    <t>10122B</t>
-  </si>
-  <si>
-    <t>10141B</t>
-  </si>
-  <si>
-    <t>10142B</t>
-  </si>
-  <si>
-    <t>10161B</t>
-  </si>
-  <si>
-    <t>10162B</t>
+    <t>10111B</t>
+  </si>
+  <si>
+    <t>10092B</t>
+  </si>
+  <si>
+    <t>10091B</t>
+  </si>
+  <si>
+    <t>10072B</t>
+  </si>
+  <si>
+    <t>10071B</t>
+  </si>
+  <si>
+    <t>10052B</t>
+  </si>
+  <si>
+    <t>10051B</t>
+  </si>
+  <si>
+    <t>10032B</t>
+  </si>
+  <si>
+    <t>10031B</t>
+  </si>
+  <si>
+    <t>10012B</t>
+  </si>
+  <si>
+    <t>10011B</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>10021A</t>
-  </si>
-  <si>
-    <t>10022A</t>
-  </si>
-  <si>
-    <t>10041A</t>
-  </si>
-  <si>
-    <t>10042A</t>
-  </si>
-  <si>
-    <t>10061A</t>
-  </si>
-  <si>
-    <t>10062A</t>
-  </si>
-  <si>
-    <t>10081A</t>
-  </si>
-  <si>
-    <t>10082A</t>
-  </si>
-  <si>
-    <t>10101A</t>
+    <t>10272A</t>
+  </si>
+  <si>
+    <t>10271A</t>
+  </si>
+  <si>
+    <t>10252A</t>
+  </si>
+  <si>
+    <t>10251A</t>
+  </si>
+  <si>
+    <t>10232A</t>
+  </si>
+  <si>
+    <t>10231A</t>
+  </si>
+  <si>
+    <t>10212A</t>
+  </si>
+  <si>
+    <t>10211A</t>
+  </si>
+  <si>
+    <t>10192A</t>
+  </si>
+  <si>
+    <t>10191A</t>
+  </si>
+  <si>
+    <t>10172A</t>
+  </si>
+  <si>
+    <t>10171A</t>
+  </si>
+  <si>
+    <t>10152A</t>
+  </si>
+  <si>
+    <t>10151A</t>
+  </si>
+  <si>
+    <t>10132A</t>
+  </si>
+  <si>
+    <t>10131A</t>
   </si>
   <si>
     <t>10112A</t>
   </si>
   <si>
-    <t>10121A</t>
-  </si>
-  <si>
-    <t>10122A</t>
-  </si>
-  <si>
-    <t>10141A</t>
-  </si>
-  <si>
-    <t>10142A</t>
-  </si>
-  <si>
-    <t>10161A</t>
-  </si>
-  <si>
-    <t>10162A</t>
+    <t>10111A</t>
+  </si>
+  <si>
+    <t>10092A</t>
+  </si>
+  <si>
+    <t>10091A</t>
+  </si>
+  <si>
+    <t>10072A</t>
+  </si>
+  <si>
+    <t>10071A</t>
+  </si>
+  <si>
+    <t>10052A</t>
+  </si>
+  <si>
+    <t>10051A</t>
+  </si>
+  <si>
+    <t>10032A</t>
+  </si>
+  <si>
+    <t>10031A</t>
+  </si>
+  <si>
+    <t>10012A</t>
+  </si>
+  <si>
+    <t>10011A</t>
   </si>
   <si>
     <t>→ Walking Path →</t>
@@ -409,571 +661,319 @@
 E</t>
   </si>
   <si>
-    <t>10272G</t>
-  </si>
-  <si>
-    <t>10271G</t>
-  </si>
-  <si>
-    <t>10252G</t>
-  </si>
-  <si>
-    <t>10251G</t>
-  </si>
-  <si>
-    <t>10232G</t>
-  </si>
-  <si>
-    <t>10231G</t>
-  </si>
-  <si>
-    <t>10212G</t>
-  </si>
-  <si>
-    <t>10211G</t>
-  </si>
-  <si>
-    <t>10192G</t>
-  </si>
-  <si>
-    <t>10191G</t>
-  </si>
-  <si>
-    <t>10172G</t>
-  </si>
-  <si>
-    <t>10171G</t>
-  </si>
-  <si>
-    <t>10152G</t>
-  </si>
-  <si>
-    <t>10151G</t>
-  </si>
-  <si>
-    <t>10132G</t>
-  </si>
-  <si>
-    <t>10131G</t>
-  </si>
-  <si>
-    <t>10111G</t>
-  </si>
-  <si>
-    <t>10092G</t>
-  </si>
-  <si>
-    <t>10091G</t>
-  </si>
-  <si>
-    <t>10072G</t>
-  </si>
-  <si>
-    <t>10071G</t>
-  </si>
-  <si>
-    <t>10052G</t>
-  </si>
-  <si>
-    <t>10051G</t>
-  </si>
-  <si>
-    <t>10032G</t>
-  </si>
-  <si>
-    <t>10031G</t>
-  </si>
-  <si>
-    <t>10012G</t>
-  </si>
-  <si>
-    <t>10011G</t>
-  </si>
-  <si>
-    <t>10272F</t>
-  </si>
-  <si>
-    <t>10271F</t>
-  </si>
-  <si>
-    <t>10252F</t>
-  </si>
-  <si>
-    <t>10251F</t>
-  </si>
-  <si>
-    <t>10232F</t>
-  </si>
-  <si>
-    <t>10231F</t>
-  </si>
-  <si>
-    <t>10212F</t>
-  </si>
-  <si>
-    <t>10211F</t>
-  </si>
-  <si>
-    <t>10192F</t>
-  </si>
-  <si>
-    <t>10191F</t>
-  </si>
-  <si>
-    <t>10172F</t>
-  </si>
-  <si>
-    <t>10171F</t>
-  </si>
-  <si>
-    <t>10152F</t>
-  </si>
-  <si>
-    <t>10151F</t>
-  </si>
-  <si>
-    <t>10132F</t>
-  </si>
-  <si>
-    <t>10131F</t>
-  </si>
-  <si>
-    <t>10111F</t>
-  </si>
-  <si>
-    <t>10092F</t>
-  </si>
-  <si>
-    <t>10091F</t>
-  </si>
-  <si>
-    <t>10072F</t>
-  </si>
-  <si>
-    <t>10071F</t>
-  </si>
-  <si>
-    <t>10052F</t>
-  </si>
-  <si>
-    <t>10051F</t>
-  </si>
-  <si>
-    <t>10032F</t>
-  </si>
-  <si>
-    <t>10031F</t>
-  </si>
-  <si>
-    <t>10012F</t>
-  </si>
-  <si>
-    <t>10011F</t>
-  </si>
-  <si>
-    <t>10272E</t>
-  </si>
-  <si>
-    <t>10271E</t>
-  </si>
-  <si>
-    <t>10252E</t>
-  </si>
-  <si>
-    <t>10251E</t>
-  </si>
-  <si>
-    <t>10232E</t>
-  </si>
-  <si>
-    <t>10231E</t>
-  </si>
-  <si>
-    <t>10212E</t>
-  </si>
-  <si>
-    <t>10211E</t>
-  </si>
-  <si>
-    <t>10192E</t>
-  </si>
-  <si>
-    <t>10191E</t>
-  </si>
-  <si>
-    <t>10172E</t>
-  </si>
-  <si>
-    <t>10171E</t>
-  </si>
-  <si>
-    <t>10152E</t>
-  </si>
-  <si>
-    <t>10151E</t>
-  </si>
-  <si>
-    <t>10132E</t>
-  </si>
-  <si>
-    <t>10131E</t>
-  </si>
-  <si>
-    <t>10111E</t>
-  </si>
-  <si>
-    <t>10092E</t>
-  </si>
-  <si>
-    <t>10091E</t>
-  </si>
-  <si>
-    <t>10072E</t>
-  </si>
-  <si>
-    <t>10071E</t>
-  </si>
-  <si>
-    <t>10052E</t>
-  </si>
-  <si>
-    <t>10051E</t>
-  </si>
-  <si>
-    <t>10032E</t>
-  </si>
-  <si>
-    <t>10031E</t>
-  </si>
-  <si>
-    <t>10012E</t>
-  </si>
-  <si>
-    <t>10011E</t>
-  </si>
-  <si>
-    <t>10272D</t>
-  </si>
-  <si>
-    <t>10271D</t>
-  </si>
-  <si>
-    <t>10252D</t>
-  </si>
-  <si>
-    <t>10251D</t>
-  </si>
-  <si>
-    <t>10232D</t>
-  </si>
-  <si>
-    <t>10231D</t>
-  </si>
-  <si>
-    <t>10212D</t>
-  </si>
-  <si>
-    <t>10211D</t>
-  </si>
-  <si>
-    <t>10192D</t>
-  </si>
-  <si>
-    <t>10191D</t>
-  </si>
-  <si>
-    <t>10172D</t>
-  </si>
-  <si>
-    <t>10171D</t>
-  </si>
-  <si>
-    <t>10152D</t>
-  </si>
-  <si>
-    <t>10151D</t>
-  </si>
-  <si>
-    <t>10132D</t>
-  </si>
-  <si>
-    <t>10131D</t>
-  </si>
-  <si>
-    <t>10111D</t>
-  </si>
-  <si>
-    <t>10092D</t>
-  </si>
-  <si>
-    <t>10091D</t>
-  </si>
-  <si>
-    <t>10072D</t>
-  </si>
-  <si>
-    <t>10071D</t>
-  </si>
-  <si>
-    <t>10052D</t>
-  </si>
-  <si>
-    <t>10051D</t>
-  </si>
-  <si>
-    <t>10032D</t>
-  </si>
-  <si>
-    <t>10031D</t>
-  </si>
-  <si>
-    <t>10012D</t>
-  </si>
-  <si>
-    <t>10011D</t>
-  </si>
-  <si>
-    <t>10272C</t>
-  </si>
-  <si>
-    <t>10271C</t>
-  </si>
-  <si>
-    <t>10252C</t>
-  </si>
-  <si>
-    <t>10251C</t>
-  </si>
-  <si>
-    <t>10232C</t>
-  </si>
-  <si>
-    <t>10231C</t>
-  </si>
-  <si>
-    <t>10212C</t>
-  </si>
-  <si>
-    <t>10211C</t>
-  </si>
-  <si>
-    <t>10192C</t>
-  </si>
-  <si>
-    <t>10191C</t>
-  </si>
-  <si>
-    <t>10172C</t>
-  </si>
-  <si>
-    <t>10171C</t>
-  </si>
-  <si>
-    <t>10152C</t>
-  </si>
-  <si>
-    <t>10151C</t>
-  </si>
-  <si>
-    <t>10132C</t>
-  </si>
-  <si>
-    <t>10131C</t>
-  </si>
-  <si>
-    <t>10111C</t>
-  </si>
-  <si>
-    <t>10092C</t>
-  </si>
-  <si>
-    <t>10091C</t>
-  </si>
-  <si>
-    <t>10072C</t>
-  </si>
-  <si>
-    <t>10071C</t>
-  </si>
-  <si>
-    <t>10052C</t>
-  </si>
-  <si>
-    <t>10051C</t>
-  </si>
-  <si>
-    <t>10032C</t>
-  </si>
-  <si>
-    <t>10031C</t>
-  </si>
-  <si>
-    <t>10012C</t>
-  </si>
-  <si>
-    <t>10011C</t>
-  </si>
-  <si>
-    <t>10272B</t>
-  </si>
-  <si>
-    <t>10271B</t>
-  </si>
-  <si>
-    <t>10252B</t>
-  </si>
-  <si>
-    <t>10251B</t>
-  </si>
-  <si>
-    <t>10232B</t>
-  </si>
-  <si>
-    <t>10231B</t>
-  </si>
-  <si>
-    <t>10212B</t>
-  </si>
-  <si>
-    <t>10211B</t>
-  </si>
-  <si>
-    <t>10192B</t>
-  </si>
-  <si>
-    <t>10191B</t>
-  </si>
-  <si>
-    <t>10172B</t>
-  </si>
-  <si>
-    <t>10171B</t>
-  </si>
-  <si>
-    <t>10152B</t>
-  </si>
-  <si>
-    <t>10151B</t>
-  </si>
-  <si>
-    <t>10132B</t>
-  </si>
-  <si>
-    <t>10131B</t>
-  </si>
-  <si>
-    <t>10111B</t>
-  </si>
-  <si>
-    <t>10092B</t>
-  </si>
-  <si>
-    <t>10091B</t>
-  </si>
-  <si>
-    <t>10072B</t>
-  </si>
-  <si>
-    <t>10071B</t>
-  </si>
-  <si>
-    <t>10052B</t>
-  </si>
-  <si>
-    <t>10051B</t>
-  </si>
-  <si>
-    <t>10032B</t>
-  </si>
-  <si>
-    <t>10031B</t>
-  </si>
-  <si>
-    <t>10012B</t>
-  </si>
-  <si>
-    <t>10011B</t>
-  </si>
-  <si>
-    <t>10272A</t>
-  </si>
-  <si>
-    <t>10271A</t>
-  </si>
-  <si>
-    <t>10252A</t>
-  </si>
-  <si>
-    <t>10251A</t>
-  </si>
-  <si>
-    <t>10232A</t>
-  </si>
-  <si>
-    <t>10231A</t>
-  </si>
-  <si>
-    <t>10212A</t>
-  </si>
-  <si>
-    <t>10211A</t>
-  </si>
-  <si>
-    <t>10192A</t>
-  </si>
-  <si>
-    <t>10191A</t>
-  </si>
-  <si>
-    <t>10172A</t>
-  </si>
-  <si>
-    <t>10171A</t>
-  </si>
-  <si>
-    <t>10152A</t>
-  </si>
-  <si>
-    <t>10151A</t>
-  </si>
-  <si>
-    <t>10132A</t>
-  </si>
-  <si>
-    <t>10131A</t>
-  </si>
-  <si>
-    <t>10111A</t>
-  </si>
-  <si>
-    <t>10092A</t>
-  </si>
-  <si>
-    <t>10091A</t>
-  </si>
-  <si>
-    <t>10072A</t>
-  </si>
-  <si>
-    <t>10071A</t>
-  </si>
-  <si>
-    <t>10052A</t>
-  </si>
-  <si>
-    <t>10051A</t>
-  </si>
-  <si>
-    <t>10032A</t>
-  </si>
-  <si>
-    <t>10031A</t>
-  </si>
-  <si>
-    <t>10012A</t>
-  </si>
-  <si>
-    <t>10011A</t>
+    <t>10021G</t>
+  </si>
+  <si>
+    <t>10022G</t>
+  </si>
+  <si>
+    <t>10041G</t>
+  </si>
+  <si>
+    <t>10042G</t>
+  </si>
+  <si>
+    <t>10061G</t>
+  </si>
+  <si>
+    <t>10062G</t>
+  </si>
+  <si>
+    <t>10081G</t>
+  </si>
+  <si>
+    <t>10082G</t>
+  </si>
+  <si>
+    <t>10101G</t>
+  </si>
+  <si>
+    <t>10121G</t>
+  </si>
+  <si>
+    <t>10122G</t>
+  </si>
+  <si>
+    <t>10141G</t>
+  </si>
+  <si>
+    <t>10142G</t>
+  </si>
+  <si>
+    <t>10161G</t>
+  </si>
+  <si>
+    <t>10162G</t>
+  </si>
+  <si>
+    <t>10021F</t>
+  </si>
+  <si>
+    <t>10022F</t>
+  </si>
+  <si>
+    <t>10041F</t>
+  </si>
+  <si>
+    <t>10042F</t>
+  </si>
+  <si>
+    <t>10061F</t>
+  </si>
+  <si>
+    <t>10062F</t>
+  </si>
+  <si>
+    <t>10081F</t>
+  </si>
+  <si>
+    <t>10082F</t>
+  </si>
+  <si>
+    <t>10101F</t>
+  </si>
+  <si>
+    <t>10121F</t>
+  </si>
+  <si>
+    <t>10122F</t>
+  </si>
+  <si>
+    <t>10141F</t>
+  </si>
+  <si>
+    <t>10142F</t>
+  </si>
+  <si>
+    <t>10161F</t>
+  </si>
+  <si>
+    <t>10162F</t>
+  </si>
+  <si>
+    <t>10021E</t>
+  </si>
+  <si>
+    <t>10022E</t>
+  </si>
+  <si>
+    <t>10041E</t>
+  </si>
+  <si>
+    <t>10042E</t>
+  </si>
+  <si>
+    <t>10061E</t>
+  </si>
+  <si>
+    <t>10062E</t>
+  </si>
+  <si>
+    <t>10081E</t>
+  </si>
+  <si>
+    <t>10082E</t>
+  </si>
+  <si>
+    <t>10101E</t>
+  </si>
+  <si>
+    <t>10121E</t>
+  </si>
+  <si>
+    <t>10122E</t>
+  </si>
+  <si>
+    <t>10141E</t>
+  </si>
+  <si>
+    <t>10142E</t>
+  </si>
+  <si>
+    <t>10161E</t>
+  </si>
+  <si>
+    <t>10162E</t>
+  </si>
+  <si>
+    <t>10021D</t>
+  </si>
+  <si>
+    <t>10022D</t>
+  </si>
+  <si>
+    <t>10041D</t>
+  </si>
+  <si>
+    <t>10042D</t>
+  </si>
+  <si>
+    <t>10061D</t>
+  </si>
+  <si>
+    <t>10062D</t>
+  </si>
+  <si>
+    <t>10081D</t>
+  </si>
+  <si>
+    <t>10082D</t>
+  </si>
+  <si>
+    <t>10101D</t>
+  </si>
+  <si>
+    <t>10121D</t>
+  </si>
+  <si>
+    <t>10122D</t>
+  </si>
+  <si>
+    <t>10141D</t>
+  </si>
+  <si>
+    <t>10142D</t>
+  </si>
+  <si>
+    <t>10161D</t>
+  </si>
+  <si>
+    <t>10162D</t>
+  </si>
+  <si>
+    <t>10021C</t>
+  </si>
+  <si>
+    <t>10022C</t>
+  </si>
+  <si>
+    <t>10041C</t>
+  </si>
+  <si>
+    <t>10042C</t>
+  </si>
+  <si>
+    <t>10061C</t>
+  </si>
+  <si>
+    <t>10062C</t>
+  </si>
+  <si>
+    <t>10081C</t>
+  </si>
+  <si>
+    <t>10082C</t>
+  </si>
+  <si>
+    <t>10101C</t>
+  </si>
+  <si>
+    <t>10121C</t>
+  </si>
+  <si>
+    <t>10122C</t>
+  </si>
+  <si>
+    <t>10141C</t>
+  </si>
+  <si>
+    <t>10142C</t>
+  </si>
+  <si>
+    <t>10161C</t>
+  </si>
+  <si>
+    <t>10162C</t>
+  </si>
+  <si>
+    <t>10021B</t>
+  </si>
+  <si>
+    <t>10022B</t>
+  </si>
+  <si>
+    <t>10041B</t>
+  </si>
+  <si>
+    <t>10042B</t>
+  </si>
+  <si>
+    <t>10061B</t>
+  </si>
+  <si>
+    <t>10062B</t>
+  </si>
+  <si>
+    <t>10081B</t>
+  </si>
+  <si>
+    <t>10082B</t>
+  </si>
+  <si>
+    <t>10101B</t>
+  </si>
+  <si>
+    <t>10121B</t>
+  </si>
+  <si>
+    <t>10122B</t>
+  </si>
+  <si>
+    <t>10141B</t>
+  </si>
+  <si>
+    <t>10142B</t>
+  </si>
+  <si>
+    <t>10161B</t>
+  </si>
+  <si>
+    <t>10162B</t>
+  </si>
+  <si>
+    <t>10021A</t>
+  </si>
+  <si>
+    <t>10022A</t>
+  </si>
+  <si>
+    <t>10041A</t>
+  </si>
+  <si>
+    <t>10042A</t>
+  </si>
+  <si>
+    <t>10061A</t>
+  </si>
+  <si>
+    <t>10062A</t>
+  </si>
+  <si>
+    <t>10081A</t>
+  </si>
+  <si>
+    <t>10082A</t>
+  </si>
+  <si>
+    <t>10101A</t>
+  </si>
+  <si>
+    <t>10121A</t>
+  </si>
+  <si>
+    <t>10122A</t>
+  </si>
+  <si>
+    <t>10141A</t>
+  </si>
+  <si>
+    <t>10142A</t>
+  </si>
+  <si>
+    <t>10161A</t>
+  </si>
+  <si>
+    <t>10162A</t>
   </si>
 </sst>
 </file>
@@ -1170,11 +1170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1517,9 +1517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30:AD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1673,18 +1673,42 @@
       <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
@@ -1721,68 +1745,92 @@
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -1819,68 +1867,92 @@
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
@@ -1917,68 +1989,92 @@
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
@@ -2015,68 +2111,92 @@
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -2113,68 +2233,92 @@
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
@@ -2211,68 +2355,92 @@
     <row r="14" spans="1:30" s="17" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
+        <v>192</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="15" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
@@ -2310,88 +2478,88 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
@@ -2486,95 +2654,71 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>149</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -2611,92 +2755,68 @@
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z20" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA20" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>176</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
@@ -2733,92 +2853,68 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y22" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA22" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>203</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
@@ -2855,92 +2951,68 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="12" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB24" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC24" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>230</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
@@ -2977,92 +3049,68 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="12" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>257</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
@@ -3099,92 +3147,68 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="12" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
@@ -3221,92 +3245,68 @@
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="O30" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="S30" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="T30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="U30" s="20" t="s">
+      <c r="H30" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="V30" s="20" t="s">
+      <c r="I30" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="W30" s="20" t="s">
+      <c r="J30" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="X30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="Y30" s="20" t="s">
+      <c r="L30" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="N30" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="AA30" s="20" t="s">
+      <c r="O30" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="AB30" s="20" t="s">
+      <c r="P30" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="Q30" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="AD30" s="20" t="s">
+      <c r="R30" s="19" t="s">
         <v>311</v>
       </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
     </row>
     <row r="31" spans="1:30" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
